--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2025-12-12T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2025-12-14T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2025-12-11T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2025-12-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-15T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2025-12-15T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2025-12-13T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2025-12-16T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-13T23:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2025-12-13T11:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2025-12-10T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-10T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2025-12-04T10:59:10.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2025-12-06T17:32:04.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2025-12-04T10:59:10.000Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2025-12-06T12:37:24.522Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-11-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-22T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-11-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-22T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-11-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-08-20T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2020-08-20T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-03T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-03T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-04T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-04T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-04T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-04T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2025-11-29T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2025-12-06T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2020-12-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2020-12-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2025-12-03T15:00:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2025-12-06T08:35:00.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2025-12-04T11:55:35.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2025-12-06T23:13:10.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2025-12-03T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12067,7 +12067,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -12999,7 +12999,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-04T10:59:10.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-06T22:54:44.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2025-12-15T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2025-12-17T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-14T21:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-17T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2025-12-03T18:33:45.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2025-12-06T05:09:22.000Z']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-04T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-04T12:40:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-06T22:40:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-04T10:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-06T22:28:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-04T12:13:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T23:14:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-04T11:13:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T22:14:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-04T12:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T23:10:00.000Z']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2025-12-05T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-02T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2025-12-02T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-28T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-09-30T21:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-10-31T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-09-30T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2025-12-14T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2025-12-21T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2025-12-13T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2025-12-20T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-15T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-22T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2025-12-15T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2025-12-22T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2025-12-16T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2025-12-23T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['1950-01-08T00:00:00.000Z', '2025-10-31T23:00:00.000Z']</t>
+          <t>['1950-01-08T00:00:00.000Z', '2025-11-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['1987-01-01T00:00:00.000Z', '2025-10-31T23:00:00.000Z']</t>
+          <t>['1987-01-01T00:00:00.000Z', '2025-11-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-16T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-15T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2025-12-06T17:32:04.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2025-12-13T16:33:25.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2025-12-06T12:37:24.522Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2025-12-13T13:51:51.905Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['2020-01-08T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
+          <t>['2020-01-08T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['2020-01-02T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
+          <t>['2020-01-02T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['2020-01-04T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
+          <t>['2020-01-04T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-11-29T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-24T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-11-28T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-11-24T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-08-20T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2020-08-20T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>['1982-01-02T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2024-11-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-06T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2025-12-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2025-12-06T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2025-12-13T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2020-12-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2020-12-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2025-12-06T08:35:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2025-12-13T10:15:00.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10748,7 +10748,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2025-12-06T23:13:10.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2025-12-13T23:05:49.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -11470,11 +11470,7 @@
           <t>{'basemapId': 'light', 'overlays': {'tags': [{'name': 'SST'}, {'name': 'Ice surface temperature'}]}}</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
+      <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -11611,7 +11607,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2025-12-04T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11843,7 +11839,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11915,7 +11911,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11991,7 +11987,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12067,7 +12063,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12143,7 +12139,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -12219,7 +12215,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12295,7 +12291,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -12371,7 +12367,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['1991-08-01T00:00:00.000Z', '2025-07-31T00:00:00.000Z']</t>
+          <t>['1991-08-01T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -12999,7 +12995,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-06T22:54:44.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-13T22:02:52.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13075,7 +13071,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -13223,7 +13219,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2025-12-17T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2025-12-24T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -13375,7 +13371,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-17T21:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-24T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -13685,7 +13681,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['2023-01-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['2023-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -13757,7 +13753,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2025-12-06T05:09:22.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2025-12-13T07:01:52.000Z']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -13829,7 +13825,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -14431,7 +14427,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-06T22:40:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-13T22:40:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14503,7 +14499,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-06T22:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-13T20:28:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14575,7 +14571,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-01T01:44:59.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14647,7 +14643,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T23:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T22:14:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14719,7 +14715,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T22:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T00:14:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14791,7 +14787,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-06T23:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T23:10:00.000Z']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -14867,7 +14863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2025-12-05T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2025-12-12T17:40:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -14943,7 +14939,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -15021,7 +15017,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2025-11-26T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15171,7 +15167,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-05T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15325,7 +15321,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -15477,7 +15473,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -15553,7 +15549,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['1985-01-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['1985-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2025-12-21T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2025-12-28T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2025-12-20T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2025-12-27T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-22T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-29T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2025-12-22T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2025-12-29T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['1980-01-01T01:00:00.000Z', '2025-09-01T00:00:00.000Z']</t>
+          <t>['1980-01-01T01:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2025-12-23T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2025-12-30T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-08-05T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-09-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-07-31T23:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-08-31T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-08-05T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-09-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['1985-01-01T00:00:00.000Z', '2025-10-31T23:00:00.000Z']</t>
+          <t>['1985-01-01T00:00:00.000Z', '2025-11-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-22T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-07-31T21:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-08-31T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-09-30T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2025-12-13T16:33:25.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2025-12-20T17:20:35.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2025-12-13T13:51:51.905Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2025-12-20T14:53:03.976Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-06T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-12-05T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-08-20T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-08-20T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-13T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-11-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2025-12-08T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2025-12-13T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2025-12-20T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2020-12-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2020-12-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2025-12-13T10:15:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2025-12-20T09:10:00.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2025-12-13T23:05:49.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2025-12-20T22:56:53.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10910,12 +10910,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>[-180, 40, 180, 90]</t>
+          <t>[-179.994, 31.001999999999995, 179.994, 89.994]</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['2014-10-03T00:00:00.000Z', None]</t>
+          <t>['2024-10-03T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2025-12-18T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>['1994-06-01T00:00:00.000Z', '2025-07-21T23:00:00.000Z']</t>
+          <t>['1994-06-01T00:00:00.000Z', '2025-08-21T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['1994-07-01T00:00:00.000Z', '2025-07-01T00:00:00.000Z']</t>
+          <t>['1994-07-01T00:00:00.000Z', '2025-08-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-13T22:02:52.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-20T22:01:32.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2025-12-24T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2025-12-30T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-24T21:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-30T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2025-12-13T07:01:52.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2025-12-20T06:25:18.000Z']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-13T22:40:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-20T22:20:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-13T20:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-20T22:28:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-01T01:44:59.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-20T20:43:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T22:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T22:15:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T00:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-13T23:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T22:10:00.000Z']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2025-12-12T17:40:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2025-12-19T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2025-12-03T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2025-12-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-12T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15321,7 +15321,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-07T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -17386,7 +17386,11 @@
           <t>['Monthly']</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>[-19, 26, 5, 42]</t>
+        </is>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>['1993-01-01T00:00:00.000Z', '2021-08-01T00:00:00.000Z']</t>
@@ -17682,7 +17686,11 @@
           <t>['Monthly']</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>[-19, 26, 5, 56]</t>
+        </is>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>['1993-01-01T00:00:00.000Z', '2021-08-01T00:00:00.000Z']</t>

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2025-12-28T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-01-04T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2025-12-27T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-01-03T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-29T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-01-05T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2025-12-29T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-01-05T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-01-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2025-12-30T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-01-06T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-09-30T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-07T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-09-30T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['1999-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
+          <t>['1999-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2025-12-29T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2025-12-20T17:20:35.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2025-12-27T16:22:04.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2025-12-20T14:53:03.976Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2025-12-27T12:52:05.076Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-13T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-08T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-12-12T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-08T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-08-20T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-08-20T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2025-12-20T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2025-12-21T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2020-12-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2020-12-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2025-12-20T09:10:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2025-12-26T10:00:00.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2025-12-20T22:56:53.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2025-12-27T22:16:25.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10910,12 +10910,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>[-179.994, 31.001999999999995, 179.994, 89.994]</t>
+          <t>[-180, 40, 180, 90]</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2014-10-03T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2025-12-18T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-20T22:01:32.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-27T20:59:33.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2025-12-30T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2025-12-31T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2025-12-30T21:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2025-12-31T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2025-12-20T06:25:18.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2025-12-27T06:22:30.000Z']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-20T22:20:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-27T22:40:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-20T22:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-27T22:28:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-20T20:43:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2025-12-21T18:42:59.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14638,12 +14638,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>[-179.98829650878906, -76.4000015258789, 179.95730590820312, 89.99939727783203]</t>
+          <t>[-179.9967041015625, -76.4000015258789, 179.99722290039062, 89.99939727783203]</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T22:15:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T23:16:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T00:14:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14782,12 +14782,12 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>[-179.98829650878906, -76.4000015258789, 179.95730590820312, 90]</t>
+          <t>[-179.9967041015625, -76.4000015258789, 179.99722290039062, 90]</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-20T22:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T23:10:00.000Z']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2025-12-19T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2025-12-26T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2025-12-10T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2025-12-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-19T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15321,7 +15321,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-14T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-01-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-01-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-01-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-01-04T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-01-11T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-01-03T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-01-10T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1510,12 +1510,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[-180, 53, 180, 90]</t>
+          <t>[-179.97, 41.13, 179.97, 89.97]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', None]</t>
+          <t>['2018-01-01T00:00:00.000Z', '2025-11-14T23:45:00.000Z']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-01-05T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-01-12T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-01-05T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-01-12T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-01-04T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-01-11T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-01-06T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-01-13T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-01-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-01-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-01-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-01-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-01-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-01-06T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-01-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-01-05T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-01-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2025-12-27T16:22:04.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-01-03T17:12:02.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-01-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2025-12-27T12:52:05.076Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-01-03T12:48:32.996Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-01-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['2024-08-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
+          <t>['2024-08-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7482,12 +7482,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[-180, 66, 179.9100000000136, 90.00000000000091]</t>
+          <t>[-180, 52.005, 179.995, 90.00000000000091]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2025-12-19T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-15T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-08-20T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-08-20T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2025-12-22T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2025-12-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2025-12-21T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-01-03T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2020-12-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2020-12-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2025-12-26T10:00:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-01-03T10:00:00.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2025-12-27T22:16:25.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-01-03T23:11:22.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10910,12 +10910,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>[-180, 40, 180, 90]</t>
+          <t>[-179.994, 31.001999999999995, 179.994, 89.994]</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['2014-10-03T00:00:00.000Z', None]</t>
+          <t>['2024-10-03T22:11:12.000Z', '2025-12-27T23:54:43.000Z']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-01-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-27T20:59:33.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-03T20:50:45.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2025-12-27T06:22:30.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-01-03T07:18:45.000Z']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-03T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-27T22:40:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-03T22:20:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-27T22:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-03T20:38:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2025-12-21T18:42:59.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-01T05:00:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T23:16:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-03T22:13:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T00:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-03T19:13:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-27T23:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-03T22:10:00.000Z']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2025-12-26T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-01-02T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2025-12-17T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2025-12-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-26T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15321,7 +15321,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2025-12-26T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-12-21T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-01-20T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-01-20T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-25T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-10-31T21:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-11-30T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-01-19T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-01-18T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-01-25T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-01-17T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-01-24T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-18T23:45:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-20T23:45:00.000Z']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['1991-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['1991-01-01T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-01-19T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-01-26T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-01-19T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-01-26T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['1980-01-01T01:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['1980-01-01T01:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-01-20T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-01-27T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-01-19T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['1992-01-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
+          <t>['1992-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-01-20T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-01-19T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-08-31T23:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-10-07T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-01-19T23:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-01-19T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['1987-01-01T00:00:00.000Z', '2025-11-30T23:00:00.000Z']</t>
+          <t>['1987-01-01T00:00:00.000Z', '2025-12-31T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-01-20T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-01-19T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2026-01-10T16:10:11.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-01-17T17:00:12.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-01-11T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2026-01-10T12:31:56.576Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-01-17T12:46:40.512Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['1992-10-13T00:32:22.000Z', '2025-05-01T23:53:46.000Z']</t>
+          <t>['1992-10-13T00:32:22.000Z', '2025-08-02T23:50:18.000Z']</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-05-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-08-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['1992-10-13T05:51:26.000Z', '2025-05-01T23:38:09.000Z']</t>
+          <t>['1992-10-13T05:51:26.000Z', '2025-08-02T23:28:34.000Z']</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-05-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-08-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-03T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2025-12-20T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-02T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2020-08-20T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2024-01-17T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-09T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-09T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-20T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-20T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-20T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-11-20T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2026-01-10T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-01-17T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2026-01-10T08:45:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-01-17T11:05:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2026-01-10T21:29:53.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-01-17T21:53:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2026-01-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2026-01-09T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['1994-06-01T00:00:00.000Z', '2025-08-21T23:00:00.000Z']</t>
+          <t>['1994-06-01T00:00:00.000Z', '2025-09-20T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['2018-03-13T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['2018-03-13T00:00:00.000Z', '2025-07-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>['2018-03-13T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['2018-03-13T00:00:00.000Z', '2025-07-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['2018-03-13T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['2018-03-13T00:00:00.000Z', '2025-07-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>['2018-03-13T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['2018-03-13T00:00:00.000Z', '2025-07-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-10T21:59:19.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-17T21:59:03.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2026-01-21T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2026-01-27T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2026-01-10T06:19:41.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-01-17T07:04:41.000Z']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>434</v>
+        <v>823</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-10T22:20:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-17T22:20:00.000Z']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-10T20:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-17T22:20:00.000Z']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -14339,7 +14339,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-10T23:13:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-17T23:14:00.000Z']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -14411,7 +14411,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-10T22:13:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-17T22:14:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-10T23:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-11T07:10:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-01-09T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-01-16T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-04T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-11T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2026-01-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-09T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-04T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-11T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,92 +422,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>catalogue</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>thumbnailUrl</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>processingLevel</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>areas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>geoResolution</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>vertLevels</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>tempExtentBegin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>tempResolutions</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>stacOrCswBbox</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>stacOrCswTbox</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>mainVariables</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>_isViewableOmi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>numLayers</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>thumbnailMeta</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>tempExtentEnd</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>omiFigureUrl</t>
         </is>
@@ -581,7 +569,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -657,7 +645,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +723,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1209,7 +1197,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1285,7 +1273,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-01-25T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-02-01T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1363,7 +1351,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1439,7 +1427,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-01-24T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-01-31T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1913,7 +1901,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-01-26T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-02T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1989,7 +1977,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-01-26T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-02-02T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2067,7 +2055,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2377,7 +2365,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2453,7 +2441,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-01-27T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-02-03T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2531,7 +2519,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2841,7 +2829,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2917,7 +2905,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2995,7 +2983,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3305,7 +3293,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3381,7 +3369,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3459,7 +3447,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3613,7 +3601,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['1985-01-01T00:00:00.000Z', '2025-11-30T23:00:00.000Z']</t>
+          <t>['1985-01-01T00:00:00.000Z', '2025-12-31T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3691,7 +3679,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['1999-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
+          <t>['1999-01-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3769,7 +3757,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3845,7 +3833,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3921,7 +3909,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-01-26T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3999,7 +3987,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4307,7 +4295,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2026-01-17T17:00:12.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-01-24T17:44:27.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4383,7 +4371,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4679,7 +4667,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2026-01-17T12:46:40.512Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-01-24T12:30:42.127Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4755,7 +4743,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5359,7 +5347,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5435,7 +5423,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5815,7 +5803,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5891,7 +5879,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5967,7 +5955,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-14T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6119,7 +6107,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6271,7 +6259,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6423,7 +6411,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6499,7 +6487,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6575,7 +6563,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6727,7 +6715,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6879,7 +6867,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6955,7 +6943,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7031,7 +7019,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7335,7 +7323,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-10T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7411,7 +7399,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7487,7 +7475,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7639,7 +7627,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7715,7 +7703,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7791,7 +7779,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7943,7 +7931,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8019,7 +8007,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8095,7 +8083,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-09T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8171,7 +8159,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-05T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8247,7 +8235,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8323,7 +8311,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2024-01-17T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2024-01-17T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8399,7 +8387,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8475,7 +8463,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8551,7 +8539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8627,7 +8615,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8779,7 +8767,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8855,7 +8843,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8931,7 +8919,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -9007,7 +8995,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9083,7 +9071,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9159,7 +9147,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9775,7 +9763,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -9851,7 +9839,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9927,7 +9915,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -10003,7 +9991,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-23T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10079,7 +10067,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10155,7 +10143,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10231,7 +10219,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2026-01-17T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-01-24T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10307,7 +10295,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10383,7 +10371,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10459,7 +10447,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10535,7 +10523,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2026-01-17T11:05:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-01-24T10:10:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10611,7 +10599,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2026-01-17T21:53:00.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-01-24T21:28:00.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10763,7 +10751,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10934,7 +10922,11 @@
           <t>{'basemapId': 'light', 'overlays': {'tags': []}}</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
       <c r="R137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -11379,7 +11371,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2026-01-15T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -11611,7 +11603,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11683,7 +11675,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -11759,7 +11751,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -11835,7 +11827,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11911,7 +11903,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11987,7 +11979,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12063,7 +12055,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12767,7 +12759,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-17T21:59:03.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-24T21:41:45.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -12843,7 +12835,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -12991,7 +12983,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2026-01-27T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2026-01-31T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13449,7 +13441,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2026-01-17T07:04:41.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-01-24T07:24:22.000Z']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -13533,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
@@ -14123,7 +14115,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-17T22:20:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-24T22:10:00.000Z']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14195,7 +14187,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-17T22:20:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-21T14:38:00.000Z']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -14339,7 +14331,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-17T23:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-24T22:15:00.000Z']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -14411,7 +14403,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-17T22:14:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-24T22:15:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14559,7 +14551,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-01-16T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-01-23T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14635,7 +14627,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-11T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14647,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="O186" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -14713,7 +14705,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2026-01-07T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2026-01-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14863,7 +14855,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-16T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -15017,7 +15009,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15169,7 +15161,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-11T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -17302,7 +17294,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -17317,7 +17309,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2022-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -17334,7 +17326,7 @@
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-02-01T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-02-08T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-01-31T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-02-07T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-20T23:45:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-08T23:45:00.000Z']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-02T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-09T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-02-02T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-02-09T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-02-03T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-02-10T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-07T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-28T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-07T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-10-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-01-27T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-11-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-08-31T21:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-09-30T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2025-11-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2026-01-24T17:44:27.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-01-31T16:48:00.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2026-01-24T12:30:42.127Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-01-31T13:19:52.760Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2025-10-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['2020-01-08T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2020-01-08T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['2020-01-02T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2020-01-02T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['2020-01-04T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2020-01-04T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-17T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-16T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-12T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2024-01-17T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2024-01-17T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2022-05-01T00:00:00.000Z', '2025-11-20T04:00:00.000Z']</t>
+          <t>['2022-05-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-25T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2026-01-24T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-01-31T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2026-01-24T10:10:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-01-31T09:15:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2026-01-24T21:28:00.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-01-31T21:37:11.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10670,12 +10670,12 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>[-180, 40, 180, 90]</t>
+          <t>[-179.994, 31.001999999999995, 179.994, 89.994]</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2014-10-03T00:00:00.000Z', None]</t>
+          <t>['2024-10-03T22:11:12.000Z', '2026-01-30T23:35:03.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-24T21:41:45.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-31T21:45:10.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2026-01-24T07:24:22.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-01-31T08:15:22.000Z']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-24T22:10:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-31T22:10:00.000Z']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-21T14:38:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-31T22:28:00.000Z']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-01T05:00:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-01-31T18:45:00.000Z']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-24T22:15:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-31T23:20:00.000Z']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-24T22:15:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-31T22:18:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-11T07:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-31T23:20:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-01-23T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-01-30T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2026-01-14T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2026-01-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-23T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-18T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-02-11T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-02-08T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-02-11T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-11T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-02-07T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-08T23:45:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-11T23:45:00.000Z']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-09T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-02-09T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-02-11T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-02-10T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-02-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-11T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-11T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-12T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-02-12T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-11T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2026-01-31T16:48:00.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-02-03T09:20:25.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2026-01-31T13:19:52.760Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-02-03T09:17:38.000Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-10-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['2024-08-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2024-08-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-24T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-23T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-19T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2024-01-17T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2024-01-17T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2022-05-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
+          <t>['2022-05-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2026-01-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2026-01-31T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2026-01-31T09:15:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-02-02T15:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2026-01-31T21:37:11.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-02-03T12:55:33.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2024-10-03T22:11:12.000Z', '2026-01-30T23:35:03.000Z']</t>
+          <t>['2024-10-03T22:11:12.000Z', '2026-02-01T23:57:36.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2024-10-03T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-31T21:45:10.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-03T11:47:01.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2026-01-31T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2026-02-14T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2026-01-31T08:15:22.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-02-02T20:43:07.000Z']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-31T22:10:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-03T12:10:00.000Z']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-31T22:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-03T12:28:00.000Z']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-01-31T18:45:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-03T13:41:59.000Z']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-31T23:20:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-03T13:12:00.000Z']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-31T22:18:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-03T10:12:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-01-31T23:20:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-03T13:10:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-01-30T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-30T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-01T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-01-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">

--- a/outputs/excel/marine.xlsx
+++ b/outputs/excel/marine.xlsx
@@ -12759,7 +12759,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-02-03T11:47:01.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-03T12:16:00.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
